--- a/DMSNewVSale_2025-12-25_15-22.xlsx
+++ b/DMSNewVSale_2025-12-25_15-22.xlsx
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAGAR 15 ML DROPS</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
   </si>
   <si>
     <t>LONGACEF 1 GM I.V. VIAL</t>
@@ -1535,24 +1544,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1561,14 +1570,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1578,14 +1587,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1594,14 +1603,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1618,7 +1627,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1634,7 +1643,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1651,7 +1660,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1667,7 +1676,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1677,14 +1686,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1693,14 +1702,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,7 +1742,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1750,7 +1759,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1766,24 +1775,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1792,20 +1801,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1816,7 +1825,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1832,7 +1841,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,7 +1907,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1915,7 +1924,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1931,7 +1940,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1941,11 +1950,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>15</v>
@@ -1957,14 +1966,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1974,14 +1983,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2003,15 +2012,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2023,14 +2032,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2047,7 +2056,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2056,7 +2065,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2073,11 +2082,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>118</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2122,14 +2131,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2155,14 +2164,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2172,11 +2181,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2188,14 +2197,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2205,51 +2214,84 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="43" ht="25.5" customHeight="1">
-      <c r="N43" s="13">
-        <v>3244.7350000000001</v>
-      </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>126</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>109</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>50</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>127</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="26.25" customHeight="1">
+      <c r="N44" s="13">
+        <v>3314.7350000000001</v>
+      </c>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>129</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>130</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>131</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2438,10 +2480,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
